--- a/Resource/excel/1000-框架-全局配置.xlsx
+++ b/Resource/excel/1000-框架-全局配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="option" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#option</t>
   </si>
@@ -153,16 +153,22 @@
   <si>
     <t>playernamelength</t>
   </si>
+  <si>
+    <t>签到时间</t>
+  </si>
+  <si>
+    <t>signinresettime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -191,9 +197,145 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,142 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -385,13 +391,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,19 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,145 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,11 +600,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,24 +632,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,28 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,148 +702,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,7 +1354,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1486,9 +1492,16 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:6">
-      <c r="A7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16">
+        <v>2</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="10"/>
     </row>
